--- a/data/pca/factorExposure/factorExposure_2012-01-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-01-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01688699765780331</v>
+        <v>0.01610919615847656</v>
       </c>
       <c r="C2">
-        <v>0.0313600534506033</v>
+        <v>0.02618669256797573</v>
       </c>
       <c r="D2">
-        <v>-0.01778255455572807</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.01498468321242644</v>
+      </c>
+      <c r="E2">
+        <v>-0.01304229055841875</v>
+      </c>
+      <c r="F2">
+        <v>0.01403463438294088</v>
+      </c>
+      <c r="G2">
+        <v>0.009127488192047683</v>
+      </c>
+      <c r="H2">
+        <v>0.04977176618811594</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.07339753628958676</v>
+        <v>0.08813650578710797</v>
       </c>
       <c r="C4">
-        <v>0.05306225107725775</v>
+        <v>0.04114897542645798</v>
       </c>
       <c r="D4">
-        <v>-0.08480253422468133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06689499243150523</v>
+      </c>
+      <c r="E4">
+        <v>-0.006920651637768271</v>
+      </c>
+      <c r="F4">
+        <v>0.03755138940724861</v>
+      </c>
+      <c r="G4">
+        <v>0.002074572562223279</v>
+      </c>
+      <c r="H4">
+        <v>-0.0364384630893852</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1094823136089314</v>
+        <v>0.1205743801519533</v>
       </c>
       <c r="C6">
-        <v>0.05024424389238315</v>
+        <v>0.03573834027261372</v>
       </c>
       <c r="D6">
-        <v>-0.005594252341091674</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01221128074914377</v>
+      </c>
+      <c r="E6">
+        <v>0.02291497944736377</v>
+      </c>
+      <c r="F6">
+        <v>0.05571826059184719</v>
+      </c>
+      <c r="G6">
+        <v>0.03405523451388941</v>
+      </c>
+      <c r="H6">
+        <v>0.1208938141023456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.05364415529322161</v>
+        <v>0.06294336120518099</v>
       </c>
       <c r="C7">
-        <v>0.02491321727658374</v>
+        <v>0.01476204064544806</v>
       </c>
       <c r="D7">
-        <v>-0.03676588475335438</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.04838735039737078</v>
+      </c>
+      <c r="E7">
+        <v>-0.03734984378918792</v>
+      </c>
+      <c r="F7">
+        <v>0.03470059454716241</v>
+      </c>
+      <c r="G7">
+        <v>-0.03240380589809651</v>
+      </c>
+      <c r="H7">
+        <v>-0.01203057471224603</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.03944543277198261</v>
+        <v>0.04085030679842779</v>
       </c>
       <c r="C8">
-        <v>0.01407530239371418</v>
+        <v>0.00938607337090345</v>
       </c>
       <c r="D8">
-        <v>-0.06528628933129042</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02914480055425034</v>
+      </c>
+      <c r="E8">
+        <v>-0.01937812866066096</v>
+      </c>
+      <c r="F8">
+        <v>0.05701219935044247</v>
+      </c>
+      <c r="G8">
+        <v>0.05125355832412217</v>
+      </c>
+      <c r="H8">
+        <v>0.001832810665844904</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.06864871760437091</v>
+        <v>0.07952710504730592</v>
       </c>
       <c r="C9">
-        <v>0.0398027347975095</v>
+        <v>0.027819250549204</v>
       </c>
       <c r="D9">
-        <v>-0.07362497330651714</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.0637166643762722</v>
+      </c>
+      <c r="E9">
+        <v>-0.027706236112015</v>
+      </c>
+      <c r="F9">
+        <v>0.03760099980853476</v>
+      </c>
+      <c r="G9">
+        <v>0.009062593881259547</v>
+      </c>
+      <c r="H9">
+        <v>-0.05239636153083409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03154237947700596</v>
+        <v>0.03646785981170679</v>
       </c>
       <c r="C10">
-        <v>0.02534904465511413</v>
+        <v>0.04382379162596457</v>
       </c>
       <c r="D10">
-        <v>0.175171087024063</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1727869338677567</v>
+      </c>
+      <c r="E10">
+        <v>-0.03623603213610665</v>
+      </c>
+      <c r="F10">
+        <v>0.05116729576295121</v>
+      </c>
+      <c r="G10">
+        <v>-0.01574206669467514</v>
+      </c>
+      <c r="H10">
+        <v>0.03115019533510507</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.07389976933930549</v>
+        <v>0.077558572246004</v>
       </c>
       <c r="C11">
-        <v>0.04349136946131098</v>
+        <v>0.02502703414929518</v>
       </c>
       <c r="D11">
-        <v>-0.05289597061478479</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.06130777230016007</v>
+      </c>
+      <c r="E11">
+        <v>0.005782087509864146</v>
+      </c>
+      <c r="F11">
+        <v>0.03099888121315839</v>
+      </c>
+      <c r="G11">
+        <v>0.007010913922789982</v>
+      </c>
+      <c r="H11">
+        <v>-0.08727947626524896</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.06144685373482371</v>
+        <v>0.0695230672821789</v>
       </c>
       <c r="C12">
-        <v>0.05163525440395992</v>
+        <v>0.0364412039780412</v>
       </c>
       <c r="D12">
-        <v>-0.04380687828931221</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.04683838932885574</v>
+      </c>
+      <c r="E12">
+        <v>-0.01130077820686444</v>
+      </c>
+      <c r="F12">
+        <v>0.0228539826052218</v>
+      </c>
+      <c r="G12">
+        <v>0.007185062047017036</v>
+      </c>
+      <c r="H12">
+        <v>-0.040810106458099</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.06348387348562357</v>
+        <v>0.06633971855885287</v>
       </c>
       <c r="C13">
-        <v>0.03271922802075506</v>
+        <v>0.01952518598325394</v>
       </c>
       <c r="D13">
-        <v>-0.05714901061893265</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.03988884560844828</v>
+      </c>
+      <c r="E13">
+        <v>-0.01207831260472285</v>
+      </c>
+      <c r="F13">
+        <v>0.0082480985183313</v>
+      </c>
+      <c r="G13">
+        <v>-0.00281648001369637</v>
+      </c>
+      <c r="H13">
+        <v>-0.05002229220012562</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03347361453718353</v>
+        <v>0.0401183849526168</v>
       </c>
       <c r="C14">
-        <v>0.03097066478141801</v>
+        <v>0.02797809961924527</v>
       </c>
       <c r="D14">
-        <v>-0.0007412304599975917</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01006140918615996</v>
+      </c>
+      <c r="E14">
+        <v>-0.03201318106120737</v>
+      </c>
+      <c r="F14">
+        <v>0.01542973048106525</v>
+      </c>
+      <c r="G14">
+        <v>0.0125396386964512</v>
+      </c>
+      <c r="H14">
+        <v>-0.05870907118364726</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.04034191455978222</v>
+        <v>0.03999715578799402</v>
       </c>
       <c r="C15">
-        <v>0.008589517007983691</v>
+        <v>0.002947273458703712</v>
       </c>
       <c r="D15">
-        <v>-0.0205471766294585</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.006828192575631748</v>
+      </c>
+      <c r="E15">
+        <v>-0.03596036074775606</v>
+      </c>
+      <c r="F15">
+        <v>0.0004391953554122792</v>
+      </c>
+      <c r="G15">
+        <v>0.02566642077724477</v>
+      </c>
+      <c r="H15">
+        <v>-0.03388620974461815</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.06194566900935228</v>
+        <v>0.07152732839507937</v>
       </c>
       <c r="C16">
-        <v>0.04049219407430289</v>
+        <v>0.02683762981068098</v>
       </c>
       <c r="D16">
-        <v>-0.04526790440456627</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06027756067917087</v>
+      </c>
+      <c r="E16">
+        <v>-0.003456826220892936</v>
+      </c>
+      <c r="F16">
+        <v>0.02930665710796047</v>
+      </c>
+      <c r="G16">
+        <v>0.001836779518692629</v>
+      </c>
+      <c r="H16">
+        <v>-0.05852280855395484</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06249965619533744</v>
+        <v>0.06318587177012949</v>
       </c>
       <c r="C20">
-        <v>0.0236075345997257</v>
+        <v>0.009712808214112254</v>
       </c>
       <c r="D20">
-        <v>-0.05092735423574108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03767162378666166</v>
+      </c>
+      <c r="E20">
+        <v>-0.01641543637705018</v>
+      </c>
+      <c r="F20">
+        <v>0.03087913418401035</v>
+      </c>
+      <c r="G20">
+        <v>0.01678935547161272</v>
+      </c>
+      <c r="H20">
+        <v>-0.04439377837874652</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02555269657820668</v>
+        <v>0.02543849965235432</v>
       </c>
       <c r="C21">
-        <v>-0.003095505639000841</v>
+        <v>-0.009980670250998351</v>
       </c>
       <c r="D21">
-        <v>-0.02755970154113095</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02490300391962721</v>
+      </c>
+      <c r="E21">
+        <v>-0.04384594447801227</v>
+      </c>
+      <c r="F21">
+        <v>-0.01520412472442856</v>
+      </c>
+      <c r="G21">
+        <v>0.01382859722020193</v>
+      </c>
+      <c r="H21">
+        <v>0.05474845100474272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.07915963189055106</v>
+        <v>0.07120999282599054</v>
       </c>
       <c r="C22">
-        <v>0.05936540609361587</v>
+        <v>0.03683103625070448</v>
       </c>
       <c r="D22">
-        <v>-0.1256353438000528</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.08789921897556481</v>
+      </c>
+      <c r="E22">
+        <v>-0.6055896378324352</v>
+      </c>
+      <c r="F22">
+        <v>-0.1263622794442586</v>
+      </c>
+      <c r="G22">
+        <v>-0.08475928154794606</v>
+      </c>
+      <c r="H22">
+        <v>0.1656812357456919</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.08014240430446942</v>
+        <v>0.07205153878376225</v>
       </c>
       <c r="C23">
-        <v>0.05810527854737592</v>
+        <v>0.03538489857307751</v>
       </c>
       <c r="D23">
-        <v>-0.1270478599245219</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.08864584126843351</v>
+      </c>
+      <c r="E23">
+        <v>-0.6046792660459707</v>
+      </c>
+      <c r="F23">
+        <v>-0.125308608854667</v>
+      </c>
+      <c r="G23">
+        <v>-0.08385340226532285</v>
+      </c>
+      <c r="H23">
+        <v>0.1622545310339503</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.07545175080184414</v>
+        <v>0.08097167456441094</v>
       </c>
       <c r="C24">
-        <v>0.05118416203061089</v>
+        <v>0.03336591018665737</v>
       </c>
       <c r="D24">
-        <v>-0.05590419298216139</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.0601011225171398</v>
+      </c>
+      <c r="E24">
+        <v>-0.01593723657459867</v>
+      </c>
+      <c r="F24">
+        <v>0.03913584527758657</v>
+      </c>
+      <c r="G24">
+        <v>0.0180387892811897</v>
+      </c>
+      <c r="H24">
+        <v>-0.04771664285361729</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.07536899592039129</v>
+        <v>0.07923030325507201</v>
       </c>
       <c r="C25">
-        <v>0.05459363764813896</v>
+        <v>0.03648561784607095</v>
       </c>
       <c r="D25">
-        <v>-0.06350423910595174</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05197786401865814</v>
+      </c>
+      <c r="E25">
+        <v>-0.01959862876396388</v>
+      </c>
+      <c r="F25">
+        <v>0.03095443918656147</v>
+      </c>
+      <c r="G25">
+        <v>0.0252625580446813</v>
+      </c>
+      <c r="H25">
+        <v>-0.05458840201230843</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.04603797048350206</v>
+        <v>0.04774358133212447</v>
       </c>
       <c r="C26">
-        <v>0.009100471381224462</v>
+        <v>0.001479576229881347</v>
       </c>
       <c r="D26">
-        <v>-0.01046361309993866</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01689888255194783</v>
+      </c>
+      <c r="E26">
+        <v>-0.04240987566419149</v>
+      </c>
+      <c r="F26">
+        <v>0.03252430678263735</v>
+      </c>
+      <c r="G26">
+        <v>-0.006611406302922096</v>
+      </c>
+      <c r="H26">
+        <v>-0.05127861053166404</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.0523829833988072</v>
+        <v>0.06312812922604817</v>
       </c>
       <c r="C28">
-        <v>0.06820205458947566</v>
+        <v>0.09405896936561026</v>
       </c>
       <c r="D28">
-        <v>0.3023770139707911</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2999290068099263</v>
+      </c>
+      <c r="E28">
+        <v>-0.03300596766058578</v>
+      </c>
+      <c r="F28">
+        <v>0.055677876374817</v>
+      </c>
+      <c r="G28">
+        <v>0.03696570179834422</v>
+      </c>
+      <c r="H28">
+        <v>0.04512732335847077</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.04220385317336458</v>
+        <v>0.04867259847312855</v>
       </c>
       <c r="C29">
-        <v>0.02899454592221448</v>
+        <v>0.02574276145076865</v>
       </c>
       <c r="D29">
-        <v>-0.007772544103667917</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.008217595691722156</v>
+      </c>
+      <c r="E29">
+        <v>-0.06054001696023233</v>
+      </c>
+      <c r="F29">
+        <v>0.01499172207349563</v>
+      </c>
+      <c r="G29">
+        <v>-0.005163034976398982</v>
+      </c>
+      <c r="H29">
+        <v>-0.07088948479724898</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1293565406103492</v>
+        <v>0.1305850798536312</v>
       </c>
       <c r="C30">
-        <v>0.08705871442295003</v>
+        <v>0.06081231531741354</v>
       </c>
       <c r="D30">
-        <v>-0.0915223382048819</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.06950781701815001</v>
+      </c>
+      <c r="E30">
+        <v>-0.08300628757498425</v>
+      </c>
+      <c r="F30">
+        <v>0.002893655094140713</v>
+      </c>
+      <c r="G30">
+        <v>0.08343641159165904</v>
+      </c>
+      <c r="H30">
+        <v>0.05992184296728062</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04497643117742432</v>
+        <v>0.04876450261422236</v>
       </c>
       <c r="C31">
-        <v>0.02231230620715064</v>
+        <v>0.0136549860066263</v>
       </c>
       <c r="D31">
-        <v>-0.0231938711225537</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02983118205357093</v>
+      </c>
+      <c r="E31">
+        <v>-0.02455190025897428</v>
+      </c>
+      <c r="F31">
+        <v>0.01298019481022962</v>
+      </c>
+      <c r="G31">
+        <v>-0.02341301427693331</v>
+      </c>
+      <c r="H31">
+        <v>-0.06745012143673845</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.03726193081026049</v>
+        <v>0.03770941468765514</v>
       </c>
       <c r="C32">
-        <v>0.02456315648693438</v>
+        <v>0.02081653974953821</v>
       </c>
       <c r="D32">
-        <v>-0.02313556459529262</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01080261086830057</v>
+      </c>
+      <c r="E32">
+        <v>-0.05371032973722616</v>
+      </c>
+      <c r="F32">
+        <v>-0.004628827184655893</v>
+      </c>
+      <c r="G32">
+        <v>0.02935804943555475</v>
+      </c>
+      <c r="H32">
+        <v>-0.07015898534493138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.08472410906437769</v>
+        <v>0.09648204165102461</v>
       </c>
       <c r="C33">
-        <v>0.0390791268746287</v>
+        <v>0.02498507107929246</v>
       </c>
       <c r="D33">
-        <v>-0.05856824192576385</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.04547716267708639</v>
+      </c>
+      <c r="E33">
+        <v>-0.01542334556218824</v>
+      </c>
+      <c r="F33">
+        <v>0.008422949758195887</v>
+      </c>
+      <c r="G33">
+        <v>-0.003485732880776054</v>
+      </c>
+      <c r="H33">
+        <v>-0.05605666576339319</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.05915816763669195</v>
+        <v>0.0641326686027771</v>
       </c>
       <c r="C34">
-        <v>0.02542826882492416</v>
+        <v>0.01126713274127472</v>
       </c>
       <c r="D34">
-        <v>-0.05474849028993125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.04916913916760781</v>
+      </c>
+      <c r="E34">
+        <v>-0.007440000176630739</v>
+      </c>
+      <c r="F34">
+        <v>0.02102004826054821</v>
+      </c>
+      <c r="G34">
+        <v>0.003039172485737409</v>
+      </c>
+      <c r="H34">
+        <v>-0.06300104527596563</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.03613702683309527</v>
+        <v>0.03868311142761374</v>
       </c>
       <c r="C35">
-        <v>0.007390501915315192</v>
+        <v>0.002673800419549394</v>
       </c>
       <c r="D35">
-        <v>-0.02162654734804604</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01390841182505807</v>
+      </c>
+      <c r="E35">
+        <v>-0.02184523643489302</v>
+      </c>
+      <c r="F35">
+        <v>-0.01569415390545076</v>
+      </c>
+      <c r="G35">
+        <v>-0.008551483103541318</v>
+      </c>
+      <c r="H35">
+        <v>-0.01910393951322834</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02336689892124182</v>
+        <v>0.02977162848370628</v>
       </c>
       <c r="C36">
-        <v>0.017495488503565</v>
+        <v>0.01554956397220122</v>
       </c>
       <c r="D36">
-        <v>-0.02041100044769453</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01388408652174294</v>
+      </c>
+      <c r="E36">
+        <v>-0.03039380629834307</v>
+      </c>
+      <c r="F36">
+        <v>0.02480968057882077</v>
+      </c>
+      <c r="G36">
+        <v>-0.005564876335801897</v>
+      </c>
+      <c r="H36">
+        <v>-0.04036987870597259</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.04217295782746285</v>
+        <v>0.04408489335621701</v>
       </c>
       <c r="C38">
-        <v>0.00130986694138692</v>
+        <v>-0.004798598776188725</v>
       </c>
       <c r="D38">
-        <v>-0.01791589736660123</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02014402609617024</v>
+      </c>
+      <c r="E38">
+        <v>-0.05083389267493446</v>
+      </c>
+      <c r="F38">
+        <v>-0.004773663107300709</v>
+      </c>
+      <c r="G38">
+        <v>0.008200998918736966</v>
+      </c>
+      <c r="H38">
+        <v>-0.03465993845220188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.09266482267362432</v>
+        <v>0.1006913340879699</v>
       </c>
       <c r="C39">
-        <v>0.06814975897675703</v>
+        <v>0.04882884084109606</v>
       </c>
       <c r="D39">
-        <v>-0.05228648335093261</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.06335594255634339</v>
+      </c>
+      <c r="E39">
+        <v>-0.008597127931858727</v>
+      </c>
+      <c r="F39">
+        <v>-0.002769742039692594</v>
+      </c>
+      <c r="G39">
+        <v>0.03916140051749969</v>
+      </c>
+      <c r="H39">
+        <v>-0.04729542869392293</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.07929191959616706</v>
+        <v>0.06780600609109147</v>
       </c>
       <c r="C40">
-        <v>0.03296004164711853</v>
+        <v>0.009429541238052553</v>
       </c>
       <c r="D40">
-        <v>-0.001824591207531876</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.02553318639149144</v>
+      </c>
+      <c r="E40">
+        <v>-0.03334289715092683</v>
+      </c>
+      <c r="F40">
+        <v>-0.05220923296549998</v>
+      </c>
+      <c r="G40">
+        <v>0.0361354486699017</v>
+      </c>
+      <c r="H40">
+        <v>0.08035390788048337</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.04294014099319163</v>
+        <v>0.0445318054779545</v>
       </c>
       <c r="C41">
-        <v>0.005090236001522936</v>
+        <v>-0.004318415107979443</v>
       </c>
       <c r="D41">
-        <v>-0.03285178242987742</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03282802773123109</v>
+      </c>
+      <c r="E41">
+        <v>-0.002355787292866307</v>
+      </c>
+      <c r="F41">
+        <v>-0.01592149202930291</v>
+      </c>
+      <c r="G41">
+        <v>0.01241086216889701</v>
+      </c>
+      <c r="H41">
+        <v>-0.04090131294281023</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.0519506814137091</v>
+        <v>0.05906080363822901</v>
       </c>
       <c r="C43">
-        <v>0.02558369906392681</v>
+        <v>0.01699154049305775</v>
       </c>
       <c r="D43">
-        <v>-0.01491841319800704</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02635188413795691</v>
+      </c>
+      <c r="E43">
+        <v>-0.02281986362957296</v>
+      </c>
+      <c r="F43">
+        <v>0.01235300629512615</v>
+      </c>
+      <c r="G43">
+        <v>-0.01723871221981926</v>
+      </c>
+      <c r="H43">
+        <v>-0.06396366263813981</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.09703676904413305</v>
+        <v>0.09695510408738092</v>
       </c>
       <c r="C44">
-        <v>0.08493113846397876</v>
+        <v>0.0605485970904159</v>
       </c>
       <c r="D44">
-        <v>-0.07757887829526468</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.06032343934284441</v>
+      </c>
+      <c r="E44">
+        <v>-0.0806120619824723</v>
+      </c>
+      <c r="F44">
+        <v>0.07291705573852596</v>
+      </c>
+      <c r="G44">
+        <v>0.03573648472079678</v>
+      </c>
+      <c r="H44">
+        <v>-0.02637699691414737</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.0266986411473467</v>
+        <v>0.03475817368206847</v>
       </c>
       <c r="C46">
-        <v>0.0160138510310764</v>
+        <v>0.01193425962754316</v>
       </c>
       <c r="D46">
-        <v>-0.02570073454714013</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03535233884586182</v>
+      </c>
+      <c r="E46">
+        <v>-0.03439185985970718</v>
+      </c>
+      <c r="F46">
+        <v>0.01340613905418439</v>
+      </c>
+      <c r="G46">
+        <v>-0.008628126318785066</v>
+      </c>
+      <c r="H46">
+        <v>-0.03260787711612646</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.03119418933597321</v>
+        <v>0.03881392964753234</v>
       </c>
       <c r="C47">
-        <v>0.02348607243749659</v>
+        <v>0.01967840451803876</v>
       </c>
       <c r="D47">
-        <v>-0.00564774374950344</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.006767134499750103</v>
+      </c>
+      <c r="E47">
+        <v>-0.04420112785130874</v>
+      </c>
+      <c r="F47">
+        <v>0.01403325511964484</v>
+      </c>
+      <c r="G47">
+        <v>-0.0420997209093362</v>
+      </c>
+      <c r="H47">
+        <v>-0.03178694477600326</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.03420955111320549</v>
+        <v>0.03865487326133615</v>
       </c>
       <c r="C48">
-        <v>0.01751603548658332</v>
+        <v>0.01083733769719659</v>
       </c>
       <c r="D48">
-        <v>-0.03255415902517745</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01973672722225943</v>
+      </c>
+      <c r="E48">
+        <v>-0.03873110461722996</v>
+      </c>
+      <c r="F48">
+        <v>0.01010708623057972</v>
+      </c>
+      <c r="G48">
+        <v>0.01352998233133196</v>
+      </c>
+      <c r="H48">
+        <v>-0.03723413576200661</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1618203083230748</v>
+        <v>0.19106215108429</v>
       </c>
       <c r="C49">
-        <v>0.04892577008752955</v>
+        <v>0.03112421673149439</v>
       </c>
       <c r="D49">
-        <v>0.003761738359495399</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.03032328953546204</v>
+      </c>
+      <c r="E49">
+        <v>0.1628453639149954</v>
+      </c>
+      <c r="F49">
+        <v>0.0553565618301157</v>
+      </c>
+      <c r="G49">
+        <v>-0.07357896675093323</v>
+      </c>
+      <c r="H49">
+        <v>0.2246759062058057</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.03969911784076281</v>
+        <v>0.04558474258895823</v>
       </c>
       <c r="C50">
-        <v>0.01944192139048501</v>
+        <v>0.012928923998804</v>
       </c>
       <c r="D50">
-        <v>-0.04445376433637368</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03497304925427223</v>
+      </c>
+      <c r="E50">
+        <v>-0.04149408505024026</v>
+      </c>
+      <c r="F50">
+        <v>0.01462207958308388</v>
+      </c>
+      <c r="G50">
+        <v>-0.02295743281185882</v>
+      </c>
+      <c r="H50">
+        <v>-0.06921099187280964</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02841294176322216</v>
+        <v>0.0296839280295185</v>
       </c>
       <c r="C51">
-        <v>0.009620719266341893</v>
+        <v>0.003137165836388852</v>
       </c>
       <c r="D51">
-        <v>-0.005632391852244571</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01070530003339949</v>
+      </c>
+      <c r="E51">
+        <v>-0.01111608856596285</v>
+      </c>
+      <c r="F51">
+        <v>0.01557961552072658</v>
+      </c>
+      <c r="G51">
+        <v>0.002377002802674838</v>
+      </c>
+      <c r="H51">
+        <v>0.001910579197682154</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1557580035371302</v>
+        <v>0.1632026484917735</v>
       </c>
       <c r="C53">
-        <v>0.07196805731258442</v>
+        <v>0.05013645842329863</v>
       </c>
       <c r="D53">
-        <v>-0.009448211484904113</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.0208296870467399</v>
+      </c>
+      <c r="E53">
+        <v>0.0289984862892487</v>
+      </c>
+      <c r="F53">
+        <v>0.01049937348826348</v>
+      </c>
+      <c r="G53">
+        <v>-0.02234693902674428</v>
+      </c>
+      <c r="H53">
+        <v>-0.1811228644316013</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.05781728845406199</v>
+        <v>0.05868098526925038</v>
       </c>
       <c r="C54">
-        <v>0.02277976253283019</v>
+        <v>0.01306960065080193</v>
       </c>
       <c r="D54">
-        <v>-0.01974466453180013</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01326403228333243</v>
+      </c>
+      <c r="E54">
+        <v>-0.04549756865162734</v>
+      </c>
+      <c r="F54">
+        <v>0.005555265794667379</v>
+      </c>
+      <c r="G54">
+        <v>0.02522094577343048</v>
+      </c>
+      <c r="H54">
+        <v>-0.04796626617928446</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1002778743503816</v>
+        <v>0.1048527845393473</v>
       </c>
       <c r="C55">
-        <v>0.04875357622089829</v>
+        <v>0.03349337002335623</v>
       </c>
       <c r="D55">
-        <v>-0.02202953563757532</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.022358816426419</v>
+      </c>
+      <c r="E55">
+        <v>-0.00733716836004742</v>
+      </c>
+      <c r="F55">
+        <v>0.01356448112187021</v>
+      </c>
+      <c r="G55">
+        <v>-0.01347164554136188</v>
+      </c>
+      <c r="H55">
+        <v>-0.1571203006398619</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1523346871735813</v>
+        <v>0.1617521698245902</v>
       </c>
       <c r="C56">
-        <v>0.08361593799113647</v>
+        <v>0.05950590354388426</v>
       </c>
       <c r="D56">
-        <v>-0.01819847279154928</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.02581715134852479</v>
+      </c>
+      <c r="E56">
+        <v>0.02174276301617848</v>
+      </c>
+      <c r="F56">
+        <v>0.02977451947234122</v>
+      </c>
+      <c r="G56">
+        <v>-0.03597238441134817</v>
+      </c>
+      <c r="H56">
+        <v>-0.1842890657437409</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1306934123001606</v>
+        <v>0.09959042787536107</v>
       </c>
       <c r="C58">
-        <v>-0.005227374955130735</v>
+        <v>-0.04592296195193615</v>
       </c>
       <c r="D58">
-        <v>-0.02354707672133633</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.03247848182207141</v>
+      </c>
+      <c r="E58">
+        <v>-0.1441721343788615</v>
+      </c>
+      <c r="F58">
+        <v>0.007594117315916621</v>
+      </c>
+      <c r="G58">
+        <v>-0.01997198208034635</v>
+      </c>
+      <c r="H58">
+        <v>0.2009325786427675</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1231726627111195</v>
+        <v>0.1394677343329848</v>
       </c>
       <c r="C59">
-        <v>0.07487484798491384</v>
+        <v>0.1009877366134658</v>
       </c>
       <c r="D59">
-        <v>0.3759907350834745</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3632538093006269</v>
+      </c>
+      <c r="E59">
+        <v>-0.02732977748920921</v>
+      </c>
+      <c r="F59">
+        <v>0.01273098116086682</v>
+      </c>
+      <c r="G59">
+        <v>-0.008142717554415863</v>
+      </c>
+      <c r="H59">
+        <v>0.001291790422112449</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2083552745846875</v>
+        <v>0.236261363042384</v>
       </c>
       <c r="C60">
-        <v>0.09007388466539609</v>
+        <v>0.06183505697472397</v>
       </c>
       <c r="D60">
-        <v>-0.02678686609706066</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04535184137906353</v>
+      </c>
+      <c r="E60">
+        <v>0.1060530072275686</v>
+      </c>
+      <c r="F60">
+        <v>0.05324861625525066</v>
+      </c>
+      <c r="G60">
+        <v>0.01792209377456929</v>
+      </c>
+      <c r="H60">
+        <v>0.1488073286613725</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.08301892776893063</v>
+        <v>0.08989540588877135</v>
       </c>
       <c r="C61">
-        <v>0.04886783630324319</v>
+        <v>0.03512576466290535</v>
       </c>
       <c r="D61">
-        <v>-0.03817389643432925</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.03977465333315525</v>
+      </c>
+      <c r="E61">
+        <v>-0.002512080492313557</v>
+      </c>
+      <c r="F61">
+        <v>0.003696392070828215</v>
+      </c>
+      <c r="G61">
+        <v>0.004673423990503768</v>
+      </c>
+      <c r="H61">
+        <v>-0.06250525903399694</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1314591321400361</v>
+        <v>0.137862533834585</v>
       </c>
       <c r="C62">
-        <v>0.05926098276997706</v>
+        <v>0.03591291675908169</v>
       </c>
       <c r="D62">
-        <v>-0.02465065831614345</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.03798080656577979</v>
+      </c>
+      <c r="E62">
+        <v>0.05515374061839868</v>
+      </c>
+      <c r="F62">
+        <v>0.004281411930305782</v>
+      </c>
+      <c r="G62">
+        <v>0.005455951488007464</v>
+      </c>
+      <c r="H62">
+        <v>-0.1828331501372241</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.05252958616888998</v>
+        <v>0.05182248290050475</v>
       </c>
       <c r="C63">
-        <v>0.02315335956075975</v>
+        <v>0.01389518786938419</v>
       </c>
       <c r="D63">
-        <v>-0.02296694864928557</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02059860269897469</v>
+      </c>
+      <c r="E63">
+        <v>-0.04898238608556325</v>
+      </c>
+      <c r="F63">
+        <v>-0.004116079521944566</v>
+      </c>
+      <c r="G63">
+        <v>0.01780000138085441</v>
+      </c>
+      <c r="H63">
+        <v>-0.04525919296359656</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1044441510103555</v>
+        <v>0.1081603057108746</v>
       </c>
       <c r="C64">
-        <v>0.03044700650092529</v>
+        <v>0.01560206329886147</v>
       </c>
       <c r="D64">
-        <v>-0.03306652147342352</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.02830609554738151</v>
+      </c>
+      <c r="E64">
+        <v>-0.0323350229922752</v>
+      </c>
+      <c r="F64">
+        <v>0.0428663477809636</v>
+      </c>
+      <c r="G64">
+        <v>0.05543287458525079</v>
+      </c>
+      <c r="H64">
+        <v>-0.04324098149949879</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1276475157857684</v>
+        <v>0.1283896034718841</v>
       </c>
       <c r="C65">
-        <v>0.05789979804897777</v>
+        <v>0.03985159390091064</v>
       </c>
       <c r="D65">
-        <v>0.001104996224637744</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.009585692494546929</v>
+      </c>
+      <c r="E65">
+        <v>0.004550374005283354</v>
+      </c>
+      <c r="F65">
+        <v>0.05564882736519348</v>
+      </c>
+      <c r="G65">
+        <v>0.0541108277369125</v>
+      </c>
+      <c r="H65">
+        <v>0.152225853814975</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1491765501103124</v>
+        <v>0.1530497893476724</v>
       </c>
       <c r="C66">
-        <v>0.0669249912913728</v>
+        <v>0.03778074154272023</v>
       </c>
       <c r="D66">
-        <v>-0.09664112426133367</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.09614642479547178</v>
+      </c>
+      <c r="E66">
+        <v>0.0186425395549457</v>
+      </c>
+      <c r="F66">
+        <v>0.006636155564809072</v>
+      </c>
+      <c r="G66">
+        <v>0.04743285922720015</v>
+      </c>
+      <c r="H66">
+        <v>-0.1127308655960062</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.07495980302853787</v>
+        <v>0.08431851153279034</v>
       </c>
       <c r="C67">
-        <v>0.008761788900203758</v>
+        <v>-0.0001110108912869297</v>
       </c>
       <c r="D67">
-        <v>-0.02171615979138726</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03188147608529819</v>
+      </c>
+      <c r="E67">
+        <v>-0.01699291228555794</v>
+      </c>
+      <c r="F67">
+        <v>0.01941934620370269</v>
+      </c>
+      <c r="G67">
+        <v>-0.009257076717751767</v>
+      </c>
+      <c r="H67">
+        <v>-0.03957943585295335</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.05895090151136537</v>
+        <v>0.05935881784878242</v>
       </c>
       <c r="C68">
-        <v>0.0486299427697016</v>
+        <v>0.07063917395355161</v>
       </c>
       <c r="D68">
-        <v>0.2547654456563057</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2672272642292697</v>
+      </c>
+      <c r="E68">
+        <v>-0.03911502123106458</v>
+      </c>
+      <c r="F68">
+        <v>0.01571498630434912</v>
+      </c>
+      <c r="G68">
+        <v>-0.005708758097623</v>
+      </c>
+      <c r="H68">
+        <v>-0.004936664370967205</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05197606017240157</v>
+        <v>0.05334196621557753</v>
       </c>
       <c r="C69">
-        <v>0.01491148164157369</v>
+        <v>0.00488002500713892</v>
       </c>
       <c r="D69">
-        <v>-0.0189128171246801</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01455901738739432</v>
+      </c>
+      <c r="E69">
+        <v>-0.02605567965173454</v>
+      </c>
+      <c r="F69">
+        <v>-0.009815984974561424</v>
+      </c>
+      <c r="G69">
+        <v>-0.02026169315154672</v>
+      </c>
+      <c r="H69">
+        <v>-0.05154771275416933</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.003770958517892726</v>
+        <v>0.02826241113726161</v>
       </c>
       <c r="C70">
-        <v>-0.008819990433674537</v>
+        <v>-0.003211015189697262</v>
       </c>
       <c r="D70">
-        <v>0.008024174940247352</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.004407682565234956</v>
+      </c>
+      <c r="E70">
+        <v>0.02612806667584494</v>
+      </c>
+      <c r="F70">
+        <v>0.01233928610992788</v>
+      </c>
+      <c r="G70">
+        <v>-0.0184679983667952</v>
+      </c>
+      <c r="H70">
+        <v>0.02400777531841223</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.05764751467814459</v>
+        <v>0.06182134457233159</v>
       </c>
       <c r="C71">
-        <v>0.04846148561710312</v>
+        <v>0.07636019432360935</v>
       </c>
       <c r="D71">
-        <v>0.2923399610643411</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2917955171161747</v>
+      </c>
+      <c r="E71">
+        <v>-0.03455913886222527</v>
+      </c>
+      <c r="F71">
+        <v>0.04457208623893483</v>
+      </c>
+      <c r="G71">
+        <v>0.005895645487161067</v>
+      </c>
+      <c r="H71">
+        <v>-0.007225912460823858</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1434485614619297</v>
+        <v>0.1453831900966341</v>
       </c>
       <c r="C72">
-        <v>0.05834939042458607</v>
+        <v>0.03319864857932472</v>
       </c>
       <c r="D72">
-        <v>-0.007240017371917255</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.0009040098270749156</v>
+      </c>
+      <c r="E72">
+        <v>0.07528140590685196</v>
+      </c>
+      <c r="F72">
+        <v>-0.1705957890404601</v>
+      </c>
+      <c r="G72">
+        <v>0.1144214389629345</v>
+      </c>
+      <c r="H72">
+        <v>-0.009464767101827254</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2852120770835749</v>
+        <v>0.2889348808743782</v>
       </c>
       <c r="C73">
-        <v>0.09333689729993018</v>
+        <v>0.035109467838655</v>
       </c>
       <c r="D73">
-        <v>-0.04553153283647367</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09459839742292041</v>
+      </c>
+      <c r="E73">
+        <v>0.2256203479343357</v>
+      </c>
+      <c r="F73">
+        <v>0.08516753058360367</v>
+      </c>
+      <c r="G73">
+        <v>-0.141459697665267</v>
+      </c>
+      <c r="H73">
+        <v>0.49211153084387</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.08333695941310015</v>
+        <v>0.09153673656508789</v>
       </c>
       <c r="C74">
-        <v>0.07534398050562968</v>
+        <v>0.05881492629966079</v>
       </c>
       <c r="D74">
-        <v>-0.007663380211245676</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03233934315089528</v>
+      </c>
+      <c r="E74">
+        <v>0.001812136075375206</v>
+      </c>
+      <c r="F74">
+        <v>-0.001042523104391924</v>
+      </c>
+      <c r="G74">
+        <v>-0.05070854478974297</v>
+      </c>
+      <c r="H74">
+        <v>-0.1187709986346283</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.09634410129132913</v>
+        <v>0.1014714059401986</v>
       </c>
       <c r="C75">
-        <v>0.04681147649547338</v>
+        <v>0.02604090282062756</v>
       </c>
       <c r="D75">
-        <v>-0.009818892399697576</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.0165368629677564</v>
+      </c>
+      <c r="E75">
+        <v>-0.002504234306012005</v>
+      </c>
+      <c r="F75">
+        <v>0.01934838658617574</v>
+      </c>
+      <c r="G75">
+        <v>-0.02777866111797717</v>
+      </c>
+      <c r="H75">
+        <v>-0.1120902527210445</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1325365768106836</v>
+        <v>0.1433296394555594</v>
       </c>
       <c r="C76">
-        <v>0.07773999181832164</v>
+        <v>0.05680529247170293</v>
       </c>
       <c r="D76">
-        <v>-0.04422394478198579</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.04623880568236746</v>
+      </c>
+      <c r="E76">
+        <v>-0.01470569267089109</v>
+      </c>
+      <c r="F76">
+        <v>0.0482306154172762</v>
+      </c>
+      <c r="G76">
+        <v>-0.0193583118401432</v>
+      </c>
+      <c r="H76">
+        <v>-0.2067091673146388</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1151274796369758</v>
+        <v>0.1046450085081393</v>
       </c>
       <c r="C77">
-        <v>0.006325695637271266</v>
+        <v>-0.0221376027054629</v>
       </c>
       <c r="D77">
-        <v>-0.09934245300878117</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.04526365246478395</v>
+      </c>
+      <c r="E77">
+        <v>-0.02092569034936545</v>
+      </c>
+      <c r="F77">
+        <v>0.08653011532652204</v>
+      </c>
+      <c r="G77">
+        <v>0.8885302303190642</v>
+      </c>
+      <c r="H77">
+        <v>0.1007981243894218</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.107718918147064</v>
+        <v>0.1456862130927093</v>
       </c>
       <c r="C78">
-        <v>0.03557868997869885</v>
+        <v>0.03035167391202893</v>
       </c>
       <c r="D78">
-        <v>-0.08379075510637746</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.08026763282204347</v>
+      </c>
+      <c r="E78">
+        <v>-0.05389197232062189</v>
+      </c>
+      <c r="F78">
+        <v>0.05769491535710198</v>
+      </c>
+      <c r="G78">
+        <v>0.08587937123563623</v>
+      </c>
+      <c r="H78">
+        <v>0.02944137951391189</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1492369664644103</v>
+        <v>0.1505108133675419</v>
       </c>
       <c r="C79">
-        <v>0.0666331047144141</v>
+        <v>0.03749182939167286</v>
       </c>
       <c r="D79">
-        <v>-0.02379777623128267</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.03009011822326262</v>
+      </c>
+      <c r="E79">
+        <v>0.01633663095982085</v>
+      </c>
+      <c r="F79">
+        <v>0.0186152551095708</v>
+      </c>
+      <c r="G79">
+        <v>-0.04333956174758029</v>
+      </c>
+      <c r="H79">
+        <v>-0.1645913625983885</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.04130102881571709</v>
+        <v>0.04255219063433993</v>
       </c>
       <c r="C80">
-        <v>0.01865663983060716</v>
+        <v>0.01319930660163194</v>
       </c>
       <c r="D80">
-        <v>-0.0276035760928246</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01347837291050536</v>
+      </c>
+      <c r="E80">
+        <v>0.0294716294003211</v>
+      </c>
+      <c r="F80">
+        <v>0.005664134568041638</v>
+      </c>
+      <c r="G80">
+        <v>-0.02135588187508996</v>
+      </c>
+      <c r="H80">
+        <v>-0.03935154538047578</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1183619862412354</v>
+        <v>0.120674761500722</v>
       </c>
       <c r="C81">
-        <v>0.05841211574249818</v>
+        <v>0.03587491965032408</v>
       </c>
       <c r="D81">
-        <v>-0.0334635372576557</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.02678579263211567</v>
+      </c>
+      <c r="E81">
+        <v>-0.008636182880405609</v>
+      </c>
+      <c r="F81">
+        <v>0.01978129753422923</v>
+      </c>
+      <c r="G81">
+        <v>-0.06173258902703678</v>
+      </c>
+      <c r="H81">
+        <v>-0.1514931259693603</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.131936145407027</v>
+        <v>0.1321377228263318</v>
       </c>
       <c r="C82">
-        <v>0.07181640410884191</v>
+        <v>0.04953624046423556</v>
       </c>
       <c r="D82">
-        <v>-0.0157637455772223</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.02845236731286025</v>
+      </c>
+      <c r="E82">
+        <v>0.02164608308564165</v>
+      </c>
+      <c r="F82">
+        <v>0.04849416082735487</v>
+      </c>
+      <c r="G82">
+        <v>-0.04976327990493756</v>
+      </c>
+      <c r="H82">
+        <v>-0.2094677902525224</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.07184339844071987</v>
+        <v>0.08428593309274499</v>
       </c>
       <c r="C83">
-        <v>-0.02059426793066623</v>
+        <v>-0.03221587533677687</v>
       </c>
       <c r="D83">
-        <v>-0.02122414000551486</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.02925287201321456</v>
+      </c>
+      <c r="E83">
+        <v>-0.01934789333520934</v>
+      </c>
+      <c r="F83">
+        <v>0.05724387907918756</v>
+      </c>
+      <c r="G83">
+        <v>-0.07005381817112331</v>
+      </c>
+      <c r="H83">
+        <v>0.03852285659398668</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.03032863057506364</v>
+        <v>0.03730113346009218</v>
       </c>
       <c r="C84">
-        <v>0.02786293675380295</v>
+        <v>0.0221580398589581</v>
       </c>
       <c r="D84">
-        <v>-0.02607350323148261</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03213875431751523</v>
+      </c>
+      <c r="E84">
+        <v>-0.03056825618876339</v>
+      </c>
+      <c r="F84">
+        <v>-0.05249243557436348</v>
+      </c>
+      <c r="G84">
+        <v>-0.06453306389453238</v>
+      </c>
+      <c r="H84">
+        <v>-0.00808606422106631</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1165233679960887</v>
+        <v>0.1197239038771476</v>
       </c>
       <c r="C85">
-        <v>0.04383945539142001</v>
+        <v>0.02191933425986728</v>
       </c>
       <c r="D85">
-        <v>-0.042487217078003</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.03464336755038287</v>
+      </c>
+      <c r="E85">
+        <v>-0.01582793372784403</v>
+      </c>
+      <c r="F85">
+        <v>0.04259394652188122</v>
+      </c>
+      <c r="G85">
+        <v>-0.05146624973998817</v>
+      </c>
+      <c r="H85">
+        <v>-0.1632854877139378</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.05489097448879583</v>
+        <v>0.05822256544851792</v>
       </c>
       <c r="C86">
-        <v>0.02115389384059334</v>
+        <v>0.009953588033321642</v>
       </c>
       <c r="D86">
-        <v>-0.04386981055249219</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.03749888482355571</v>
+      </c>
+      <c r="E86">
+        <v>-0.05409182475659269</v>
+      </c>
+      <c r="F86">
+        <v>0.02692864653050077</v>
+      </c>
+      <c r="G86">
+        <v>-0.03515740092728614</v>
+      </c>
+      <c r="H86">
+        <v>0.002909223636290221</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.1215588587546385</v>
+        <v>0.1239073226108491</v>
       </c>
       <c r="C87">
-        <v>0.06417338471197333</v>
+        <v>0.03243984020194387</v>
       </c>
       <c r="D87">
-        <v>-0.07077300523165429</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.06957723573340867</v>
+      </c>
+      <c r="E87">
+        <v>-0.01389820396032549</v>
+      </c>
+      <c r="F87">
+        <v>0.01062593263655589</v>
+      </c>
+      <c r="G87">
+        <v>0.1350191068457761</v>
+      </c>
+      <c r="H87">
+        <v>0.04082744042860337</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.0535834831415337</v>
+        <v>0.06144953738991097</v>
       </c>
       <c r="C88">
-        <v>0.02869735229027272</v>
+        <v>0.01975099215634677</v>
       </c>
       <c r="D88">
-        <v>-0.01759286083219508</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03421991827334597</v>
+      </c>
+      <c r="E88">
+        <v>-0.01566758485616145</v>
+      </c>
+      <c r="F88">
+        <v>0.01134031404372287</v>
+      </c>
+      <c r="G88">
+        <v>0.004353303085564897</v>
+      </c>
+      <c r="H88">
+        <v>-0.05070997116118278</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08641908175542792</v>
+        <v>0.09702068993481948</v>
       </c>
       <c r="C89">
-        <v>0.06929003945399777</v>
+        <v>0.09986593869354447</v>
       </c>
       <c r="D89">
-        <v>0.3295893961517151</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.3465204528973427</v>
+      </c>
+      <c r="E89">
+        <v>-0.06878811359708958</v>
+      </c>
+      <c r="F89">
+        <v>0.08358209736507015</v>
+      </c>
+      <c r="G89">
+        <v>-0.0154809155214486</v>
+      </c>
+      <c r="H89">
+        <v>-0.00364224722108206</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07422800164575194</v>
+        <v>0.08033530831550124</v>
       </c>
       <c r="C90">
-        <v>0.05795327286349755</v>
+        <v>0.08279799069454945</v>
       </c>
       <c r="D90">
-        <v>0.3135317963216058</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.3032340761017677</v>
+      </c>
+      <c r="E90">
+        <v>-0.06782243021950941</v>
+      </c>
+      <c r="F90">
+        <v>0.008412114302641448</v>
+      </c>
+      <c r="G90">
+        <v>0.004958427808079582</v>
+      </c>
+      <c r="H90">
+        <v>0.000765783919057895</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.08966296871009342</v>
+        <v>0.0914407381741817</v>
       </c>
       <c r="C91">
-        <v>0.05074642612314003</v>
+        <v>0.03042026584555011</v>
       </c>
       <c r="D91">
-        <v>-0.02221327740506749</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.0304572990818493</v>
+      </c>
+      <c r="E91">
+        <v>-0.0068300436484804</v>
+      </c>
+      <c r="F91">
+        <v>0.003874215713918565</v>
+      </c>
+      <c r="G91">
+        <v>-0.04773639820670344</v>
+      </c>
+      <c r="H91">
+        <v>-0.08535295800452773</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.07500608191343888</v>
+        <v>0.08079419461736005</v>
       </c>
       <c r="C92">
-        <v>0.07330618514629339</v>
+        <v>0.1020820933532343</v>
       </c>
       <c r="D92">
-        <v>0.3375450222299166</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.340386324555888</v>
+      </c>
+      <c r="E92">
+        <v>-0.0394375830049495</v>
+      </c>
+      <c r="F92">
+        <v>0.04412826495690793</v>
+      </c>
+      <c r="G92">
+        <v>0.02256732438960146</v>
+      </c>
+      <c r="H92">
+        <v>-0.01360591602521702</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.06520808556682464</v>
+        <v>0.07588752524850616</v>
       </c>
       <c r="C93">
-        <v>0.06437570795593947</v>
+        <v>0.09480674121319636</v>
       </c>
       <c r="D93">
-        <v>0.3021422253627706</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2999083153980877</v>
+      </c>
+      <c r="E93">
+        <v>-0.02307880249558342</v>
+      </c>
+      <c r="F93">
+        <v>0.03379253856477103</v>
+      </c>
+      <c r="G93">
+        <v>0.02219701304790772</v>
+      </c>
+      <c r="H93">
+        <v>0.01147582371554305</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1353414938170663</v>
+        <v>0.129658741466674</v>
       </c>
       <c r="C94">
-        <v>0.0438345130116847</v>
+        <v>0.01369353578396004</v>
       </c>
       <c r="D94">
-        <v>-0.04024477745415488</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04568945996903002</v>
+      </c>
+      <c r="E94">
+        <v>0.01809761723059429</v>
+      </c>
+      <c r="F94">
+        <v>0.01249509726340262</v>
+      </c>
+      <c r="G94">
+        <v>-0.06592218902001236</v>
+      </c>
+      <c r="H94">
+        <v>-0.1008251518172978</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1246697220318065</v>
+        <v>0.128292869604686</v>
       </c>
       <c r="C95">
-        <v>0.02627323125876513</v>
+        <v>-0.0009433598244436192</v>
       </c>
       <c r="D95">
-        <v>-0.04897880042881921</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.06279990493424162</v>
+      </c>
+      <c r="E95">
+        <v>-0.006696956541281307</v>
+      </c>
+      <c r="F95">
+        <v>0.03419104656277378</v>
+      </c>
+      <c r="G95">
+        <v>0.02166232031321702</v>
+      </c>
+      <c r="H95">
+        <v>0.053583085489497</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.2230084658460819</v>
+        <v>0.2029141514857822</v>
       </c>
       <c r="C97">
-        <v>0.04132966504517212</v>
+        <v>-0.003919977475765786</v>
       </c>
       <c r="D97">
-        <v>0.1096519506265303</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0786882079706353</v>
+      </c>
+      <c r="E97">
+        <v>0.1547277949459298</v>
+      </c>
+      <c r="F97">
+        <v>-0.915493694503092</v>
+      </c>
+      <c r="G97">
+        <v>0.06272330000343074</v>
+      </c>
+      <c r="H97">
+        <v>-0.01531400950471658</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2486895655224274</v>
+        <v>0.2763743319040853</v>
       </c>
       <c r="C98">
-        <v>0.05854145738794003</v>
+        <v>0.0227040466334901</v>
       </c>
       <c r="D98">
-        <v>-0.03087314856292723</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.05120788501959028</v>
+      </c>
+      <c r="E98">
+        <v>0.1917226854077775</v>
+      </c>
+      <c r="F98">
+        <v>0.05137105754797217</v>
+      </c>
+      <c r="G98">
+        <v>-0.2374032064445452</v>
+      </c>
+      <c r="H98">
+        <v>0.2598570946382936</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.3999142195442498</v>
+        <v>0.2699410791748638</v>
       </c>
       <c r="C99">
-        <v>-0.8987314477778576</v>
+        <v>-0.9286058963923958</v>
       </c>
       <c r="D99">
-        <v>0.05820848574811271</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.1772221823789916</v>
+      </c>
+      <c r="E99">
+        <v>-0.06891691137131552</v>
+      </c>
+      <c r="F99">
+        <v>0.06280436287737114</v>
+      </c>
+      <c r="G99">
+        <v>-0.02241659941198749</v>
+      </c>
+      <c r="H99">
+        <v>-0.06909686318703769</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.04201102331267818</v>
+        <v>0.04858453943096261</v>
       </c>
       <c r="C101">
-        <v>0.02911262267676929</v>
+        <v>0.02597240009694154</v>
       </c>
       <c r="D101">
-        <v>-0.008544896761745314</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.008471217927193507</v>
+      </c>
+      <c r="E101">
+        <v>-0.06050569653244081</v>
+      </c>
+      <c r="F101">
+        <v>0.01463700929322377</v>
+      </c>
+      <c r="G101">
+        <v>-0.005668746936965792</v>
+      </c>
+      <c r="H101">
+        <v>-0.06981519691112373</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
